--- a/Data/Ready_data/Dosel_pendientes.xlsx
+++ b/Data/Ready_data/Dosel_pendientes.xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\OneDrive\Escritorio\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hp\Documents\GitHub\Road-kills-amphibian-reptile\Data\Ready_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6FBE59B8-CAC3-4DC1-A368-B1575A6BE670}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380" xr2:uid="{D8F09909-AC60-44E3-8584-AAE805369FBE}"/>
+    <workbookView xWindow="-90" yWindow="-90" windowWidth="19380" windowHeight="10380"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,22 +42,22 @@
     <t>Subtransecto</t>
   </si>
   <si>
-    <t>Velocidad de corrientes</t>
+    <t>SIN AGUA</t>
   </si>
   <si>
-    <t>Dosel Media</t>
+    <t>Velocidad_corrientes</t>
   </si>
   <si>
-    <t>Pendiente Media</t>
+    <t>Dosel_Media</t>
   </si>
   <si>
-    <t>SIN AGUA</t>
+    <t>Pendiente_Media</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -403,20 +402,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{216F95AC-1BA3-4B13-9AA3-1E184643705D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.75" x14ac:dyDescent="0.75"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="19.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.6328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -424,16 +423,16 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.75">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>5</v>
       </c>
@@ -450,7 +449,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>5</v>
       </c>
@@ -467,7 +466,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>5</v>
       </c>
@@ -484,7 +483,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>5</v>
       </c>
@@ -501,7 +500,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -518,7 +517,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -535,7 +534,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>5</v>
       </c>
@@ -552,7 +551,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>5</v>
       </c>
@@ -569,7 +568,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>5</v>
       </c>
@@ -577,7 +576,7 @@
         <v>20</v>
       </c>
       <c r="C10" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D10">
         <v>79.294800000000009</v>
@@ -586,7 +585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>5</v>
       </c>
@@ -594,7 +593,7 @@
         <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D11">
         <v>80.35560000000001</v>
@@ -603,7 +602,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>5</v>
       </c>
@@ -611,7 +610,7 @@
         <v>20</v>
       </c>
       <c r="C12" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <v>89.107200000000006</v>
@@ -620,7 +619,7 @@
         <v>41.5</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>5</v>
       </c>
@@ -628,7 +627,7 @@
         <v>20</v>
       </c>
       <c r="C13" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13">
         <v>93.880800000000008</v>
@@ -637,7 +636,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -645,7 +644,7 @@
         <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14">
         <v>84.598799999999997</v>
@@ -654,7 +653,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -662,7 +661,7 @@
         <v>19</v>
       </c>
       <c r="C15" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D15">
         <v>74.256</v>
@@ -671,7 +670,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>5</v>
       </c>
@@ -679,7 +678,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <v>92.554800000000014</v>
@@ -688,7 +687,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>5</v>
       </c>
@@ -696,7 +695,7 @@
         <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D17">
         <v>88.311599999999999</v>
@@ -705,7 +704,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>5</v>
       </c>
@@ -713,7 +712,7 @@
         <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D18">
         <v>92.82</v>
@@ -722,7 +721,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>5</v>
       </c>
@@ -730,7 +729,7 @@
         <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D19">
         <v>90.433199999999999</v>
@@ -739,7 +738,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>5</v>
       </c>
@@ -747,7 +746,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <v>99.980400000000003</v>
@@ -756,7 +755,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>5</v>
       </c>
@@ -764,7 +763,7 @@
         <v>19</v>
       </c>
       <c r="C21" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21">
         <v>94.411200000000008</v>
@@ -773,7 +772,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>5</v>
       </c>
@@ -781,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22">
         <v>92.0244</v>
@@ -790,7 +789,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>5</v>
       </c>
@@ -798,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="C23" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D23">
         <v>94.411200000000008</v>
@@ -807,7 +806,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>5</v>
       </c>
@@ -815,7 +814,7 @@
         <v>19</v>
       </c>
       <c r="C24" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <v>90.963600000000014</v>
@@ -824,7 +823,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>5</v>
       </c>
@@ -832,7 +831,7 @@
         <v>18</v>
       </c>
       <c r="C25" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D25">
         <v>94.941599999999994</v>
@@ -841,7 +840,7 @@
         <v>42.5</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>5</v>
       </c>
@@ -849,7 +848,7 @@
         <v>18</v>
       </c>
       <c r="C26" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D26">
         <v>80.35560000000001</v>
@@ -858,7 +857,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>5</v>
       </c>
@@ -866,7 +865,7 @@
         <v>18</v>
       </c>
       <c r="C27" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D27">
         <v>97.858800000000002</v>
@@ -875,7 +874,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>5</v>
       </c>
@@ -883,7 +882,7 @@
         <v>18</v>
       </c>
       <c r="C28" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <v>97.328400000000002</v>
@@ -892,7 +891,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5</v>
       </c>
@@ -900,7 +899,7 @@
         <v>18</v>
       </c>
       <c r="C29" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D29">
         <v>89.902799999999999</v>
@@ -909,7 +908,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>5</v>
       </c>
@@ -917,7 +916,7 @@
         <v>18</v>
       </c>
       <c r="C30" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30">
         <v>79.029600000000002</v>
@@ -926,7 +925,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>5</v>
       </c>
@@ -934,7 +933,7 @@
         <v>18</v>
       </c>
       <c r="C31" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31">
         <v>99.71520000000001</v>
@@ -943,7 +942,7 @@
         <v>37.5</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>5</v>
       </c>
@@ -951,7 +950,7 @@
         <v>18</v>
       </c>
       <c r="C32" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <v>93.085200000000015</v>
@@ -960,7 +959,7 @@
         <v>35.5</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>5</v>
       </c>
@@ -968,7 +967,7 @@
         <v>17</v>
       </c>
       <c r="C33" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D33">
         <v>91.228800000000007</v>
@@ -977,7 +976,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>5</v>
       </c>
@@ -985,7 +984,7 @@
         <v>17</v>
       </c>
       <c r="C34" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34">
         <v>85.659600000000012</v>
@@ -994,7 +993,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>5</v>
       </c>
@@ -1002,7 +1001,7 @@
         <v>17</v>
       </c>
       <c r="C35" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D35">
         <v>80.090399999999988</v>
@@ -1011,7 +1010,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>5</v>
       </c>
@@ -1019,7 +1018,7 @@
         <v>17</v>
       </c>
       <c r="C36" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D36">
         <v>98.389200000000017</v>
@@ -1028,7 +1027,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>5</v>
       </c>
@@ -1036,7 +1035,7 @@
         <v>17</v>
       </c>
       <c r="C37" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D37">
         <v>96.798000000000002</v>
@@ -1045,7 +1044,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>5</v>
       </c>
@@ -1053,7 +1052,7 @@
         <v>17</v>
       </c>
       <c r="C38" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D38">
         <v>85.924800000000005</v>
@@ -1062,7 +1061,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>5</v>
       </c>
@@ -1070,7 +1069,7 @@
         <v>17</v>
       </c>
       <c r="C39" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D39">
         <v>94.676400000000001</v>
@@ -1079,7 +1078,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>5</v>
       </c>
@@ -1087,7 +1086,7 @@
         <v>17</v>
       </c>
       <c r="C40" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D40">
         <v>60.730800000000002</v>
@@ -1096,7 +1095,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>5</v>
       </c>
@@ -1113,7 +1112,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>5</v>
       </c>
@@ -1121,7 +1120,7 @@
         <v>17</v>
       </c>
       <c r="C42" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42">
         <v>81.41640000000001</v>
@@ -1130,7 +1129,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>4</v>
       </c>
@@ -1138,7 +1137,7 @@
         <v>16</v>
       </c>
       <c r="C43" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D43">
         <v>96.002400000000009</v>
@@ -1147,7 +1146,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>4</v>
       </c>
@@ -1155,7 +1154,7 @@
         <v>16</v>
       </c>
       <c r="C44" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D44">
         <v>96.798000000000002</v>
@@ -1164,7 +1163,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>4</v>
       </c>
@@ -1172,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="C45" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D45">
         <v>95.472000000000008</v>
@@ -1181,7 +1180,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>4</v>
       </c>
@@ -1189,7 +1188,7 @@
         <v>16</v>
       </c>
       <c r="C46" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D46">
         <v>96.532800000000009</v>
@@ -1198,7 +1197,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>4</v>
       </c>
@@ -1206,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="C47" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47">
         <v>95.737200000000001</v>
@@ -1215,7 +1214,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>4</v>
       </c>
@@ -1223,7 +1222,7 @@
         <v>16</v>
       </c>
       <c r="C48" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D48">
         <v>94.411200000000008</v>
@@ -1232,7 +1231,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>4</v>
       </c>
@@ -1240,7 +1239,7 @@
         <v>16</v>
       </c>
       <c r="C49" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D49">
         <v>95.206800000000015</v>
@@ -1249,7 +1248,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>4</v>
       </c>
@@ -1257,7 +1256,7 @@
         <v>16</v>
       </c>
       <c r="C50" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50">
         <v>94.676400000000001</v>
@@ -1266,7 +1265,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>4</v>
       </c>
@@ -1274,7 +1273,7 @@
         <v>16</v>
       </c>
       <c r="C51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51">
         <v>89.902799999999999</v>
@@ -1283,7 +1282,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>4</v>
       </c>
@@ -1300,7 +1299,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>4</v>
       </c>
@@ -1317,7 +1316,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>4</v>
       </c>
@@ -1334,7 +1333,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>4</v>
       </c>
@@ -1351,7 +1350,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>4</v>
       </c>
@@ -1359,7 +1358,7 @@
         <v>15</v>
       </c>
       <c r="C56" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D56">
         <v>93.615600000000001</v>
@@ -1368,7 +1367,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>4</v>
       </c>
@@ -1376,7 +1375,7 @@
         <v>15</v>
       </c>
       <c r="C57" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D57">
         <v>63.913200000000003</v>
@@ -1385,7 +1384,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>4</v>
       </c>
@@ -1393,7 +1392,7 @@
         <v>15</v>
       </c>
       <c r="C58" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58">
         <v>75.316800000000001</v>
@@ -1402,7 +1401,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>4</v>
       </c>
@@ -1410,7 +1409,7 @@
         <v>15</v>
       </c>
       <c r="C59" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D59">
         <v>83.272800000000004</v>
@@ -1419,7 +1418,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>4</v>
       </c>
@@ -1427,7 +1426,7 @@
         <v>15</v>
       </c>
       <c r="C60" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60">
         <v>59.139600000000002</v>
@@ -1436,7 +1435,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>4</v>
       </c>
@@ -1444,7 +1443,7 @@
         <v>15</v>
       </c>
       <c r="C61" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61">
         <v>80.620800000000003</v>
@@ -1453,7 +1452,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>4</v>
       </c>
@@ -1461,7 +1460,7 @@
         <v>15</v>
       </c>
       <c r="C62" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62">
         <v>93.880800000000008</v>
@@ -1470,7 +1469,7 @@
         <v>39.5</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>4</v>
       </c>
@@ -1478,7 +1477,7 @@
         <v>15</v>
       </c>
       <c r="C63" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D63">
         <v>98.919600000000003</v>
@@ -1487,7 +1486,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>4</v>
       </c>
@@ -1495,7 +1494,7 @@
         <v>15</v>
       </c>
       <c r="C64" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D64">
         <v>97.593600000000009</v>
@@ -1504,7 +1503,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>4</v>
       </c>
@@ -1521,7 +1520,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>4</v>
       </c>
@@ -1538,7 +1537,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>4</v>
       </c>
@@ -1555,7 +1554,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>4</v>
       </c>
@@ -1563,7 +1562,7 @@
         <v>14</v>
       </c>
       <c r="C68" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D68">
         <v>56.222400000000007</v>
@@ -1572,7 +1571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -1589,7 +1588,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>4</v>
       </c>
@@ -1606,7 +1605,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>4</v>
       </c>
@@ -1623,7 +1622,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>4</v>
       </c>
@@ -1631,7 +1630,7 @@
         <v>14</v>
       </c>
       <c r="C72" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>73.1952</v>
@@ -1640,7 +1639,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>4</v>
       </c>
@@ -1657,7 +1656,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>4</v>
       </c>
@@ -1674,7 +1673,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1691,7 +1690,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1708,7 +1707,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>4</v>
       </c>
@@ -1716,7 +1715,7 @@
         <v>13</v>
       </c>
       <c r="C77" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D77">
         <v>98.919600000000003</v>
@@ -1725,7 +1724,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>4</v>
       </c>
@@ -1733,7 +1732,7 @@
         <v>13</v>
       </c>
       <c r="C78" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78">
         <v>99.71520000000001</v>
@@ -1742,7 +1741,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>4</v>
       </c>
@@ -1759,7 +1758,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>4</v>
       </c>
@@ -1767,7 +1766,7 @@
         <v>13</v>
       </c>
       <c r="C80" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80">
         <v>82.212000000000018</v>
@@ -1776,7 +1775,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>4</v>
       </c>
@@ -1793,7 +1792,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>4</v>
       </c>
@@ -1810,7 +1809,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>4</v>
       </c>
@@ -1827,7 +1826,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>4</v>
       </c>
@@ -1835,7 +1834,7 @@
         <v>13</v>
       </c>
       <c r="C84" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84">
         <v>95.737200000000001</v>
@@ -1844,7 +1843,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>3</v>
       </c>
@@ -1852,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="C85" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85">
         <v>50.918400000000005</v>
@@ -1861,7 +1860,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1869,7 +1868,7 @@
         <v>12</v>
       </c>
       <c r="C86" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D86">
         <v>79.825200000000009</v>
@@ -1878,7 +1877,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>3</v>
       </c>
@@ -1886,7 +1885,7 @@
         <v>12</v>
       </c>
       <c r="C87" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D87">
         <v>96.002400000000009</v>
@@ -1895,7 +1894,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>3</v>
       </c>
@@ -1903,7 +1902,7 @@
         <v>12</v>
       </c>
       <c r="C88" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88">
         <v>89.107200000000006</v>
@@ -1912,7 +1911,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>3</v>
       </c>
@@ -1920,7 +1919,7 @@
         <v>12</v>
       </c>
       <c r="C89" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89">
         <v>95.206800000000015</v>
@@ -1929,7 +1928,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>3</v>
       </c>
@@ -1937,7 +1936,7 @@
         <v>12</v>
       </c>
       <c r="C90" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D90">
         <v>84.864000000000004</v>
@@ -1946,7 +1945,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>3</v>
       </c>
@@ -1954,7 +1953,7 @@
         <v>12</v>
       </c>
       <c r="C91" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D91">
         <v>84.598799999999997</v>
@@ -1963,7 +1962,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>3</v>
       </c>
@@ -1980,7 +1979,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>3</v>
       </c>
@@ -1997,7 +1996,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>3</v>
       </c>
@@ -2014,7 +2013,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>3</v>
       </c>
@@ -2031,7 +2030,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2039,7 +2038,7 @@
         <v>11</v>
       </c>
       <c r="C96" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D96">
         <v>68.156400000000019</v>
@@ -2048,7 +2047,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2065,7 +2064,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>3</v>
       </c>
@@ -2082,7 +2081,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>3</v>
       </c>
@@ -2099,7 +2098,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>3</v>
       </c>
@@ -2116,7 +2115,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>3</v>
       </c>
@@ -2133,7 +2132,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>3</v>
       </c>
@@ -2150,7 +2149,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>3</v>
       </c>
@@ -2167,7 +2166,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>3</v>
       </c>
@@ -2175,7 +2174,7 @@
         <v>11</v>
       </c>
       <c r="C104" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D104">
         <v>90.698400000000007</v>
@@ -2184,7 +2183,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>3</v>
       </c>
@@ -2192,7 +2191,7 @@
         <v>10</v>
       </c>
       <c r="C105" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D105">
         <v>92.82</v>
@@ -2201,7 +2200,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>3</v>
       </c>
@@ -2209,7 +2208,7 @@
         <v>10</v>
       </c>
       <c r="C106" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D106">
         <v>62.05680000000001</v>
@@ -2218,7 +2217,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>3</v>
       </c>
@@ -2226,7 +2225,7 @@
         <v>10</v>
       </c>
       <c r="C107" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D107">
         <v>85.129200000000012</v>
@@ -2235,7 +2234,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>3</v>
       </c>
@@ -2243,7 +2242,7 @@
         <v>10</v>
       </c>
       <c r="C108" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D108">
         <v>93.880800000000008</v>
@@ -2252,7 +2251,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>3</v>
       </c>
@@ -2260,7 +2259,7 @@
         <v>10</v>
       </c>
       <c r="C109" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D109">
         <v>95.206800000000015</v>
@@ -2269,7 +2268,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>3</v>
       </c>
@@ -2277,7 +2276,7 @@
         <v>10</v>
       </c>
       <c r="C110" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D110">
         <v>68.421599999999998</v>
@@ -2286,7 +2285,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>3</v>
       </c>
@@ -2294,7 +2293,7 @@
         <v>10</v>
       </c>
       <c r="C111" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D111">
         <v>68.952000000000012</v>
@@ -2303,7 +2302,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>3</v>
       </c>
@@ -2311,7 +2310,7 @@
         <v>10</v>
       </c>
       <c r="C112" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D112">
         <v>93.615600000000001</v>
@@ -2320,7 +2319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>3</v>
       </c>
@@ -2328,7 +2327,7 @@
         <v>10</v>
       </c>
       <c r="C113" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D113">
         <v>83.272800000000004</v>
@@ -2337,7 +2336,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114">
         <v>3</v>
       </c>
@@ -2345,7 +2344,7 @@
         <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D114">
         <v>72.399600000000007</v>
@@ -2354,7 +2353,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115">
         <v>3</v>
       </c>
@@ -2362,7 +2361,7 @@
         <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D115">
         <v>72.134399999999999</v>
@@ -2371,7 +2370,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116">
         <v>3</v>
       </c>
@@ -2379,7 +2378,7 @@
         <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D116">
         <v>90.168000000000006</v>
@@ -2388,7 +2387,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117">
         <v>3</v>
       </c>
@@ -2396,7 +2395,7 @@
         <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D117">
         <v>93.085200000000015</v>
@@ -2405,7 +2404,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118">
         <v>3</v>
       </c>
@@ -2413,7 +2412,7 @@
         <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D118">
         <v>97.328400000000002</v>
@@ -2422,7 +2421,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119">
         <v>3</v>
       </c>
@@ -2430,7 +2429,7 @@
         <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D119">
         <v>77.703600000000009</v>
@@ -2439,7 +2438,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120">
         <v>3</v>
       </c>
@@ -2447,7 +2446,7 @@
         <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D120">
         <v>43.757999999999996</v>
@@ -2456,7 +2455,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121">
         <v>3</v>
       </c>
@@ -2464,7 +2463,7 @@
         <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D121">
         <v>57.813600000000001</v>
@@ -2473,7 +2472,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122">
         <v>3</v>
       </c>
@@ -2481,7 +2480,7 @@
         <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D122">
         <v>79.825200000000009</v>
@@ -2490,7 +2489,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123">
         <v>3</v>
       </c>
@@ -2498,7 +2497,7 @@
         <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D123">
         <v>93.350400000000008</v>
@@ -2507,7 +2506,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124">
         <v>3</v>
       </c>
@@ -2515,7 +2514,7 @@
         <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D124">
         <v>75.847200000000001</v>
@@ -2524,7 +2523,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125">
         <v>2</v>
       </c>
@@ -2532,7 +2531,7 @@
         <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D125">
         <v>92.82</v>
@@ -2541,7 +2540,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126">
         <v>2</v>
       </c>
@@ -2549,7 +2548,7 @@
         <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D126">
         <v>90.698400000000007</v>
@@ -2558,7 +2557,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127">
         <v>2</v>
       </c>
@@ -2566,7 +2565,7 @@
         <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D127">
         <v>89.107200000000006</v>
@@ -2575,7 +2574,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128">
         <v>2</v>
       </c>
@@ -2583,7 +2582,7 @@
         <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D128">
         <v>73.1952</v>
@@ -2592,7 +2591,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129">
         <v>2</v>
       </c>
@@ -2600,7 +2599,7 @@
         <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D129">
         <v>60.996000000000009</v>
@@ -2609,7 +2608,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130">
         <v>2</v>
       </c>
@@ -2617,7 +2616,7 @@
         <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D130">
         <v>64.708800000000011</v>
@@ -2626,7 +2625,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131">
         <v>2</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D131">
         <v>63.64800000000001</v>
@@ -2643,7 +2642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132">
         <v>2</v>
       </c>
@@ -2651,7 +2650,7 @@
         <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D132">
         <v>80.885999999999996</v>
@@ -2660,7 +2659,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133">
         <v>2</v>
       </c>
@@ -2668,7 +2667,7 @@
         <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D133">
         <v>73.7256</v>
@@ -2677,7 +2676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134">
         <v>2</v>
       </c>
@@ -2694,7 +2693,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135">
         <v>2</v>
       </c>
@@ -2711,7 +2710,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136">
         <v>2</v>
       </c>
@@ -2728,7 +2727,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137">
         <v>2</v>
       </c>
@@ -2745,7 +2744,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138">
         <v>2</v>
       </c>
@@ -2762,7 +2761,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139">
         <v>2</v>
       </c>
@@ -2770,7 +2769,7 @@
         <v>7</v>
       </c>
       <c r="C139" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D139">
         <v>76.112400000000008</v>
@@ -2779,7 +2778,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140">
         <v>2</v>
       </c>
@@ -2787,7 +2786,7 @@
         <v>7</v>
       </c>
       <c r="C140" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D140">
         <v>78.499200000000002</v>
@@ -2796,7 +2795,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141">
         <v>2</v>
       </c>
@@ -2813,7 +2812,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142">
         <v>2</v>
       </c>
@@ -2830,7 +2829,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143">
         <v>2</v>
       </c>
@@ -2847,7 +2846,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144">
         <v>2</v>
       </c>
@@ -2864,7 +2863,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145">
         <v>2</v>
       </c>
@@ -2881,7 +2880,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146">
         <v>2</v>
       </c>
@@ -2898,7 +2897,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147">
         <v>2</v>
       </c>
@@ -2906,7 +2905,7 @@
         <v>6</v>
       </c>
       <c r="C147" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D147">
         <v>80.090399999999988</v>
@@ -2915,7 +2914,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148">
         <v>2</v>
       </c>
@@ -2923,7 +2922,7 @@
         <v>6</v>
       </c>
       <c r="C148" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D148">
         <v>97.858800000000002</v>
@@ -2932,7 +2931,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149">
         <v>2</v>
       </c>
@@ -2940,7 +2939,7 @@
         <v>6</v>
       </c>
       <c r="C149" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D149">
         <v>93.350400000000008</v>
@@ -2949,7 +2948,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150">
         <v>2</v>
       </c>
@@ -2957,7 +2956,7 @@
         <v>6</v>
       </c>
       <c r="C150" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D150">
         <v>80.620800000000003</v>
@@ -2966,7 +2965,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151">
         <v>2</v>
       </c>
@@ -2974,7 +2973,7 @@
         <v>6</v>
       </c>
       <c r="C151" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D151">
         <v>98.123999999999995</v>
@@ -2983,7 +2982,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152">
         <v>2</v>
       </c>
@@ -2991,7 +2990,7 @@
         <v>6</v>
       </c>
       <c r="C152" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D152">
         <v>97.858800000000002</v>
@@ -3000,7 +2999,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153">
         <v>2</v>
       </c>
@@ -3008,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="C153" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D153">
         <v>81.41640000000001</v>
@@ -3017,7 +3016,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154">
         <v>2</v>
       </c>
@@ -3025,7 +3024,7 @@
         <v>5</v>
       </c>
       <c r="C154" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D154">
         <v>99.45</v>
@@ -3034,7 +3033,7 @@
         <v>27.5</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155">
         <v>2</v>
       </c>
@@ -3042,7 +3041,7 @@
         <v>5</v>
       </c>
       <c r="C155" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D155">
         <v>92.82</v>
@@ -3051,7 +3050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156">
         <v>2</v>
       </c>
@@ -3059,7 +3058,7 @@
         <v>5</v>
       </c>
       <c r="C156" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D156">
         <v>96.798000000000002</v>
@@ -3068,7 +3067,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157">
         <v>2</v>
       </c>
@@ -3085,7 +3084,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158">
         <v>2</v>
       </c>
@@ -3093,7 +3092,7 @@
         <v>5</v>
       </c>
       <c r="C158" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D158">
         <v>79.56</v>
@@ -3102,7 +3101,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159">
         <v>2</v>
       </c>
@@ -3110,7 +3109,7 @@
         <v>5</v>
       </c>
       <c r="C159" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D159">
         <v>92.82</v>
@@ -3119,7 +3118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160">
         <v>2</v>
       </c>
@@ -3127,7 +3126,7 @@
         <v>5</v>
       </c>
       <c r="C160" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D160">
         <v>82.742400000000004</v>
@@ -3136,7 +3135,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161">
         <v>2</v>
       </c>
@@ -3144,7 +3143,7 @@
         <v>5</v>
       </c>
       <c r="C161" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D161">
         <v>74.786400000000015</v>
@@ -3153,7 +3152,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162">
         <v>2</v>
       </c>
@@ -3161,7 +3160,7 @@
         <v>5</v>
       </c>
       <c r="C162" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D162">
         <v>81.946799999999996</v>
@@ -3170,7 +3169,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163">
         <v>2</v>
       </c>
@@ -3178,7 +3177,7 @@
         <v>5</v>
       </c>
       <c r="C163" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D163">
         <v>66.300000000000011</v>
@@ -3187,7 +3186,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164">
         <v>1</v>
       </c>
@@ -3195,7 +3194,7 @@
         <v>4</v>
       </c>
       <c r="C164" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D164">
         <v>81.681600000000003</v>
@@ -3204,7 +3203,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165">
         <v>1</v>
       </c>
@@ -3212,7 +3211,7 @@
         <v>4</v>
       </c>
       <c r="C165" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D165">
         <v>47.736000000000004</v>
@@ -3221,7 +3220,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166">
         <v>1</v>
       </c>
@@ -3229,7 +3228,7 @@
         <v>4</v>
       </c>
       <c r="C166" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D166">
         <v>33.415199999999999</v>
@@ -3238,7 +3237,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167">
         <v>1</v>
       </c>
@@ -3255,7 +3254,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168">
         <v>1</v>
       </c>
@@ -3263,7 +3262,7 @@
         <v>4</v>
       </c>
       <c r="C168" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D168">
         <v>37.128</v>
@@ -3272,7 +3271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169">
         <v>1</v>
       </c>
@@ -3280,7 +3279,7 @@
         <v>4</v>
       </c>
       <c r="C169" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D169">
         <v>29.702400000000001</v>
@@ -3289,7 +3288,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170">
         <v>1</v>
       </c>
@@ -3297,7 +3296,7 @@
         <v>4</v>
       </c>
       <c r="C170" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D170">
         <v>29.437200000000001</v>
@@ -3306,7 +3305,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171">
         <v>1</v>
       </c>
@@ -3314,7 +3313,7 @@
         <v>4</v>
       </c>
       <c r="C171" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D171">
         <v>29.437200000000001</v>
@@ -3323,7 +3322,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172">
         <v>1</v>
       </c>
@@ -3331,7 +3330,7 @@
         <v>4</v>
       </c>
       <c r="C172" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D172">
         <v>54.1008</v>
@@ -3340,7 +3339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173">
         <v>1</v>
       </c>
@@ -3348,7 +3347,7 @@
         <v>4</v>
       </c>
       <c r="C173" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D173">
         <v>60.996000000000009</v>
@@ -3357,7 +3356,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174">
         <v>1</v>
       </c>
@@ -3365,7 +3364,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D174">
         <v>56.752800000000001</v>
@@ -3374,7 +3373,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175">
         <v>1</v>
       </c>
@@ -3382,7 +3381,7 @@
         <v>4</v>
       </c>
       <c r="C175" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D175">
         <v>60.996000000000009</v>
@@ -3391,7 +3390,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176">
         <v>1</v>
       </c>
@@ -3399,7 +3398,7 @@
         <v>3</v>
       </c>
       <c r="C176" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D176">
         <v>9.0167999999999999</v>
@@ -3408,7 +3407,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177">
         <v>1</v>
       </c>
@@ -3416,7 +3415,7 @@
         <v>3</v>
       </c>
       <c r="C177" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D177">
         <v>29.172000000000004</v>
@@ -3425,7 +3424,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178">
         <v>1</v>
       </c>
@@ -3433,7 +3432,7 @@
         <v>3</v>
       </c>
       <c r="C178" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D178">
         <v>0</v>
@@ -3442,7 +3441,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179">
         <v>1</v>
       </c>
@@ -3450,7 +3449,7 @@
         <v>3</v>
       </c>
       <c r="C179" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D179">
         <v>57.813600000000001</v>
@@ -3459,7 +3458,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180">
         <v>1</v>
       </c>
@@ -3467,7 +3466,7 @@
         <v>3</v>
       </c>
       <c r="C180" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D180">
         <v>55.9572</v>
@@ -3476,7 +3475,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181">
         <v>1</v>
       </c>
@@ -3484,7 +3483,7 @@
         <v>3</v>
       </c>
       <c r="C181" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D181">
         <v>32.354400000000005</v>
@@ -3493,7 +3492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182">
         <v>1</v>
       </c>
@@ -3501,7 +3500,7 @@
         <v>3</v>
       </c>
       <c r="C182" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D182">
         <v>35.006399999999999</v>
@@ -3510,7 +3509,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183">
         <v>1</v>
       </c>
@@ -3527,7 +3526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184">
         <v>1</v>
       </c>
@@ -3544,7 +3543,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185">
         <v>1</v>
       </c>
@@ -3561,7 +3560,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186">
         <v>1</v>
       </c>
@@ -3578,7 +3577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187">
         <v>1</v>
       </c>
@@ -3586,7 +3585,7 @@
         <v>3</v>
       </c>
       <c r="C187" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D187">
         <v>73.7256</v>
@@ -3595,7 +3594,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188">
         <v>1</v>
       </c>
@@ -3603,7 +3602,7 @@
         <v>2</v>
       </c>
       <c r="C188" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D188">
         <v>76.908000000000015</v>
@@ -3612,7 +3611,7 @@
         <v>30.5</v>
       </c>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189">
         <v>1</v>
       </c>
@@ -3620,7 +3619,7 @@
         <v>2</v>
       </c>
       <c r="C189" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D189">
         <v>61.526400000000002</v>
@@ -3629,7 +3628,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190">
         <v>1</v>
       </c>
@@ -3637,7 +3636,7 @@
         <v>2</v>
       </c>
       <c r="C190" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D190">
         <v>77.438400000000001</v>
@@ -3646,7 +3645,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191">
         <v>1</v>
       </c>
@@ -3654,7 +3653,7 @@
         <v>2</v>
       </c>
       <c r="C191" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D191">
         <v>68.421599999999998</v>
@@ -3663,7 +3662,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192">
         <v>1</v>
       </c>
@@ -3671,7 +3670,7 @@
         <v>2</v>
       </c>
       <c r="C192" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D192">
         <v>37.9236</v>
@@ -3680,7 +3679,7 @@
         <v>28.5</v>
       </c>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193">
         <v>1</v>
       </c>
@@ -3688,7 +3687,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D193">
         <v>54.1008</v>
@@ -3697,7 +3696,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194">
         <v>1</v>
       </c>
@@ -3705,7 +3704,7 @@
         <v>2</v>
       </c>
       <c r="C194" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D194">
         <v>40.045199999999994</v>
@@ -3714,7 +3713,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195">
         <v>1</v>
       </c>
@@ -3722,7 +3721,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D195">
         <v>39.249600000000001</v>
@@ -3731,7 +3730,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196">
         <v>1</v>
       </c>
@@ -3739,7 +3738,7 @@
         <v>2</v>
       </c>
       <c r="C196" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D196">
         <v>95.206800000000015</v>
@@ -3748,7 +3747,7 @@
         <v>38.5</v>
       </c>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197">
         <v>1</v>
       </c>
@@ -3756,7 +3755,7 @@
         <v>2</v>
       </c>
       <c r="C197" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D197">
         <v>93.880800000000008</v>
@@ -3765,7 +3764,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198">
         <v>1</v>
       </c>
@@ -3773,7 +3772,7 @@
         <v>2</v>
       </c>
       <c r="C198" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D198">
         <v>95.472000000000008</v>
@@ -3782,7 +3781,7 @@
         <v>33.5</v>
       </c>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199">
         <v>1</v>
       </c>
@@ -3790,7 +3789,7 @@
         <v>2</v>
       </c>
       <c r="C199" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D199">
         <v>94.941599999999994</v>
@@ -3799,7 +3798,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200">
         <v>1</v>
       </c>
@@ -3807,7 +3806,7 @@
         <v>1</v>
       </c>
       <c r="C200" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D200">
         <v>90.168000000000006</v>
@@ -3816,7 +3815,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201">
         <v>1</v>
       </c>
@@ -3833,7 +3832,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="202" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202">
         <v>1</v>
       </c>
@@ -3850,7 +3849,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="203" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203">
         <v>1</v>
       </c>
@@ -3858,7 +3857,7 @@
         <v>1</v>
       </c>
       <c r="C203" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D203">
         <v>96.798000000000002</v>
@@ -3867,7 +3866,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="204" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204">
         <v>1</v>
       </c>
@@ -3875,7 +3874,7 @@
         <v>1</v>
       </c>
       <c r="C204" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D204">
         <v>94.146000000000001</v>
@@ -3884,7 +3883,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="205" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205">
         <v>1</v>
       </c>
@@ -3901,7 +3900,7 @@
         <v>29.5</v>
       </c>
     </row>
-    <row r="206" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206">
         <v>1</v>
       </c>
@@ -3909,7 +3908,7 @@
         <v>1</v>
       </c>
       <c r="C206" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D206">
         <v>96.532800000000009</v>
@@ -3918,7 +3917,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="207" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207">
         <v>1</v>
       </c>
@@ -3926,7 +3925,7 @@
         <v>1</v>
       </c>
       <c r="C207" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D207">
         <v>85.924800000000005</v>
@@ -3935,7 +3934,7 @@
         <v>36.5</v>
       </c>
     </row>
-    <row r="208" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208">
         <v>1</v>
       </c>
@@ -3952,7 +3951,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="209" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209">
         <v>1</v>
       </c>
@@ -3969,7 +3968,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="210" spans="1:5" x14ac:dyDescent="0.75">
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210">
         <v>1</v>
       </c>
